--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Thbs1-Cd36.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Thbs1-Cd36.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>149.656361</v>
+        <v>2.727484333333333</v>
       </c>
       <c r="H2">
-        <v>448.969083</v>
+        <v>8.182453000000001</v>
       </c>
       <c r="I2">
-        <v>0.5921360794347563</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="J2">
-        <v>0.5921360794347564</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>550.0569519999999</v>
+        <v>547.450775</v>
       </c>
       <c r="N2">
-        <v>1650.170856</v>
+        <v>1642.352325</v>
       </c>
       <c r="O2">
-        <v>0.9236787975512359</v>
+        <v>0.8253533007282613</v>
       </c>
       <c r="P2">
-        <v>0.9236787975512361</v>
+        <v>0.8253533007282614</v>
       </c>
       <c r="Q2">
-        <v>82319.52177907164</v>
+        <v>1493.163412083692</v>
       </c>
       <c r="R2">
-        <v>740875.6960116449</v>
+        <v>13438.47070875323</v>
       </c>
       <c r="S2">
-        <v>0.5469435418389988</v>
+        <v>0.02555334635888971</v>
       </c>
       <c r="T2">
-        <v>0.5469435418389991</v>
+        <v>0.02555334635888971</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>149.656361</v>
+        <v>2.727484333333333</v>
       </c>
       <c r="H3">
-        <v>448.969083</v>
+        <v>8.182453000000001</v>
       </c>
       <c r="I3">
-        <v>0.5921360794347563</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="J3">
-        <v>0.5921360794347564</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>4.344058</v>
       </c>
       <c r="O3">
-        <v>0.002431575042877153</v>
+        <v>0.002183077622430991</v>
       </c>
       <c r="P3">
-        <v>0.002431575042877153</v>
+        <v>0.002183077622430991</v>
       </c>
       <c r="Q3">
-        <v>216.7053040843127</v>
+        <v>3.949450046030445</v>
       </c>
       <c r="R3">
-        <v>1950.347736758814</v>
+        <v>35.54505041427401</v>
       </c>
       <c r="S3">
-        <v>0.001439823312740677</v>
+        <v>6.758916280470192E-05</v>
       </c>
       <c r="T3">
-        <v>0.001439823312740677</v>
+        <v>6.758916280470195E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>149.656361</v>
+        <v>2.727484333333333</v>
       </c>
       <c r="H4">
-        <v>448.969083</v>
+        <v>8.182453000000001</v>
       </c>
       <c r="I4">
-        <v>0.5921360794347563</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="J4">
-        <v>0.5921360794347564</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>44.00177133333333</v>
+        <v>114.393852</v>
       </c>
       <c r="N4">
-        <v>132.005314</v>
+        <v>343.181556</v>
       </c>
       <c r="O4">
-        <v>0.07388962740588684</v>
+        <v>0.1724636216493076</v>
       </c>
       <c r="P4">
-        <v>0.07388962740588685</v>
+        <v>0.1724636216493076</v>
       </c>
       <c r="Q4">
-        <v>6585.144975300783</v>
+        <v>312.007439159652</v>
       </c>
       <c r="R4">
-        <v>59266.30477770705</v>
+        <v>2808.066952436868</v>
       </c>
       <c r="S4">
-        <v>0.04375271428301675</v>
+        <v>0.005339559016029465</v>
       </c>
       <c r="T4">
-        <v>0.04375271428301677</v>
+        <v>0.005339559016029467</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>158.202374</v>
       </c>
       <c r="I5">
-        <v>0.208649853730866</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="J5">
-        <v>0.2086498537308661</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>550.0569519999999</v>
+        <v>547.450775</v>
       </c>
       <c r="N5">
-        <v>1650.170856</v>
+        <v>1642.352325</v>
       </c>
       <c r="O5">
-        <v>0.9236787975512359</v>
+        <v>0.8253533007282613</v>
       </c>
       <c r="P5">
-        <v>0.9236787975512361</v>
+        <v>0.8253533007282614</v>
       </c>
       <c r="Q5">
-        <v>29006.77188053468</v>
+        <v>28869.33741771328</v>
       </c>
       <c r="R5">
-        <v>261060.9469248121</v>
+        <v>259824.0367594195</v>
       </c>
       <c r="S5">
-        <v>0.1927254460033676</v>
+        <v>0.4940572292466095</v>
       </c>
       <c r="T5">
-        <v>0.1927254460033676</v>
+        <v>0.4940572292466096</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>158.202374</v>
       </c>
       <c r="I6">
-        <v>0.208649853730866</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="J6">
-        <v>0.2086498537308661</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,22 +806,22 @@
         <v>4.344058</v>
       </c>
       <c r="O6">
-        <v>0.002431575042877153</v>
+        <v>0.002183077622430991</v>
       </c>
       <c r="P6">
-        <v>0.002431575042877153</v>
+        <v>0.002183077622430991</v>
       </c>
       <c r="Q6">
         <v>76.36003204374357</v>
       </c>
       <c r="R6">
-        <v>687.2402883936921</v>
+        <v>687.240288393692</v>
       </c>
       <c r="S6">
-        <v>0.0005073477770319424</v>
+        <v>0.001306792231177661</v>
       </c>
       <c r="T6">
-        <v>0.0005073477770319424</v>
+        <v>0.001306792231177661</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>158.202374</v>
       </c>
       <c r="I7">
-        <v>0.208649853730866</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="J7">
-        <v>0.2086498537308661</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>44.00177133333333</v>
+        <v>114.393852</v>
       </c>
       <c r="N7">
-        <v>132.005314</v>
+        <v>343.181556</v>
       </c>
       <c r="O7">
-        <v>0.07388962740588684</v>
+        <v>0.1724636216493076</v>
       </c>
       <c r="P7">
-        <v>0.07388962740588685</v>
+        <v>0.1724636216493076</v>
       </c>
       <c r="Q7">
-        <v>2320.394895046159</v>
+        <v>6032.459652468216</v>
       </c>
       <c r="R7">
-        <v>20883.55405541544</v>
+        <v>54292.13687221394</v>
       </c>
       <c r="S7">
-        <v>0.01541705995046648</v>
+        <v>0.1032368792645635</v>
       </c>
       <c r="T7">
-        <v>0.01541705995046648</v>
+        <v>0.1032368792645635</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>50.34932566666667</v>
+        <v>32.63402300000001</v>
       </c>
       <c r="H8">
-        <v>151.047977</v>
+        <v>97.90206900000001</v>
       </c>
       <c r="I8">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="J8">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>550.0569519999999</v>
+        <v>547.450775</v>
       </c>
       <c r="N8">
-        <v>1650.170856</v>
+        <v>1642.352325</v>
       </c>
       <c r="O8">
-        <v>0.9236787975512359</v>
+        <v>0.8253533007282613</v>
       </c>
       <c r="P8">
-        <v>0.9236787975512361</v>
+        <v>0.8253533007282614</v>
       </c>
       <c r="Q8">
-        <v>27694.99661146203</v>
+        <v>17865.52118271783</v>
       </c>
       <c r="R8">
-        <v>249254.9695031583</v>
+        <v>160789.6906444604</v>
       </c>
       <c r="S8">
-        <v>0.1840098097088695</v>
+        <v>0.305742725122762</v>
       </c>
       <c r="T8">
-        <v>0.1840098097088696</v>
+        <v>0.3057427251227621</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>50.34932566666667</v>
+        <v>32.63402300000001</v>
       </c>
       <c r="H9">
-        <v>151.047977</v>
+        <v>97.90206900000001</v>
       </c>
       <c r="I9">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="J9">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>4.344058</v>
       </c>
       <c r="O9">
-        <v>0.002431575042877153</v>
+        <v>0.002183077622430991</v>
       </c>
       <c r="P9">
-        <v>0.002431575042877153</v>
+        <v>0.002183077622430991</v>
       </c>
       <c r="Q9">
-        <v>72.90679698562957</v>
+        <v>47.25469622844468</v>
       </c>
       <c r="R9">
-        <v>656.1611728706661</v>
+        <v>425.2922660560021</v>
       </c>
       <c r="S9">
-        <v>0.000484403953104534</v>
+        <v>0.0008086962284486281</v>
       </c>
       <c r="T9">
-        <v>0.000484403953104534</v>
+        <v>0.0008086962284486282</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>50.34932566666667</v>
+        <v>32.63402300000001</v>
       </c>
       <c r="H10">
-        <v>151.047977</v>
+        <v>97.90206900000001</v>
       </c>
       <c r="I10">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="J10">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>44.00177133333333</v>
+        <v>114.393852</v>
       </c>
       <c r="N10">
-        <v>132.005314</v>
+        <v>343.181556</v>
       </c>
       <c r="O10">
-        <v>0.07388962740588684</v>
+        <v>0.1724636216493076</v>
       </c>
       <c r="P10">
-        <v>0.07388962740588685</v>
+        <v>0.1724636216493076</v>
       </c>
       <c r="Q10">
-        <v>2215.459514772198</v>
+        <v>3733.131597226597</v>
       </c>
       <c r="R10">
-        <v>19939.13563294978</v>
+        <v>33598.18437503937</v>
       </c>
       <c r="S10">
-        <v>0.01471985317240361</v>
+        <v>0.0638871833687146</v>
       </c>
       <c r="T10">
-        <v>0.01471985317240361</v>
+        <v>0.06388718336871461</v>
       </c>
     </row>
   </sheetData>
